--- a/jalkapallo/futis.xlsx
+++ b/jalkapallo/futis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julius\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0ACD0A-4D98-4674-858D-1C35A8387C3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBE5EB5-2515-42F0-B8B1-6582809913ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B593346-2B1F-47AA-AD75-15D08374917C}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,7 +794,7 @@
         <v>0.65654291492711614</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">H5/AVERAGE(H$2:H$105)</f>
         <v>0.74384405535948273</v>
       </c>
       <c r="K5">
